--- a/assets/public/Chapter_13_Forecasting Cash Flows & Investment Analysis/documents/resources/06_Final.xlsx
+++ b/assets/public/Chapter_13_Forecasting Cash Flows & Investment Analysis/documents/resources/06_Final.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_13_Forecasting Cash Flows &amp; Investment Analysis\documents\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="180" windowWidth="25040" windowHeight="16900" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="435" yWindow="180" windowWidth="25035" windowHeight="16905" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="Monthly P&amp;L" sheetId="5" r:id="rId5"/>
     <sheet name="Annual P&amp;L" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -314,11 +319,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -624,7 +629,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -993,51 +998,48 @@
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="58" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1046,6 +1048,9 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="423">
     <cellStyle name="Comma" xfId="57" builtinId="3"/>
@@ -1474,6 +1479,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1805,53 +1818,53 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="28.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>7</v>
       </c>
@@ -1859,7 +1872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>8</v>
       </c>
@@ -1867,7 +1880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>9</v>
       </c>
@@ -1875,42 +1888,42 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>35</v>
       </c>
@@ -1931,15 +1944,15 @@
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -1953,7 +1966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -1968,7 +1981,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -1983,7 +1996,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -1998,7 +2011,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -2006,7 +2019,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
@@ -2033,21 +2046,21 @@
   <dimension ref="A3:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>1</v>
       </c>
@@ -2079,7 +2092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -2124,7 +2137,7 @@
         <v>11789.73845500001</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -2169,7 +2182,7 @@
         <v>9824.7820458333408</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -2214,7 +2227,7 @@
         <v>9824.7820458333408</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -2259,7 +2272,7 @@
         <v>9824.7820458333408</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -2303,7 +2316,7 @@
         <v>2357.9476910000008</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -2347,7 +2360,7 @@
         <v>7073.8430730000055</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -2391,7 +2404,7 @@
         <v>2357.9476910000008</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -2435,7 +2448,7 @@
         <v>2357.9476910000008</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -2479,7 +2492,7 @@
         <v>235.79476910000022</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>80</v>
       </c>
@@ -2524,7 +2537,7 @@
         <v>416.66666666666669</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2536,7 +2549,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
@@ -2581,7 +2594,7 @@
         <v>55647.56550760004</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>62</v>
       </c>
@@ -2589,7 +2602,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>82</v>
       </c>
@@ -2597,7 +2610,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2605,10 +2618,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>200850</v>
       </c>
@@ -2619,7 +2632,7 @@
         <v>337900</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>29255</v>
       </c>
@@ -2630,7 +2643,7 @@
         <v>36752</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>51479</v>
       </c>
@@ -2641,7 +2654,7 @@
         <v>90344</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C30">
         <f>C28/(C25-C26)</f>
         <v>0.3000029138378158</v>
@@ -2671,25 +2684,25 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>1</v>
       </c>
@@ -2730,7 +2743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -2777,7 +2790,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>38</v>
       </c>
@@ -2821,7 +2834,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>63</v>
       </c>
@@ -2829,7 +2842,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -2874,7 +2887,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>61</v>
       </c>
@@ -2916,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>40</v>
       </c>
@@ -2954,7 +2967,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>52</v>
       </c>
@@ -3007,7 +3020,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>53</v>
       </c>
@@ -3060,7 +3073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -3113,7 +3126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>55</v>
       </c>
@@ -3166,12 +3179,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>57</v>
       </c>
@@ -3188,7 +3201,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>58</v>
       </c>
@@ -3205,7 +3218,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>59</v>
       </c>
@@ -3222,7 +3235,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>60</v>
       </c>
@@ -3239,7 +3252,7 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
@@ -3258,16 +3271,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DR43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:122">
+    <row r="1" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>64</v>
       </c>
@@ -3741,7 +3754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:122">
+    <row r="2" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>65</v>
       </c>
@@ -4225,12 +4238,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:122">
+    <row r="5" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="2:122">
+    <row r="6" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>52</v>
       </c>
@@ -4715,7 +4728,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="7" spans="2:122">
+    <row r="7" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>67</v>
       </c>
@@ -5200,7 +5213,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="2:122">
+    <row r="8" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>68</v>
       </c>
@@ -5685,7 +5698,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="2:122">
+    <row r="9" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>55</v>
       </c>
@@ -6170,7 +6183,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="11" spans="2:122">
+    <row r="11" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>70</v>
       </c>
@@ -6655,12 +6668,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:122">
+    <row r="13" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:122">
+    <row r="14" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>57</v>
       </c>
@@ -7145,7 +7158,7 @@
         <v>213555</v>
       </c>
     </row>
-    <row r="15" spans="2:122">
+    <row r="15" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>58</v>
       </c>
@@ -7630,7 +7643,7 @@
         <v>12650</v>
       </c>
     </row>
-    <row r="16" spans="2:122">
+    <row r="16" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>59</v>
       </c>
@@ -8115,7 +8128,7 @@
         <v>11270</v>
       </c>
     </row>
-    <row r="17" spans="2:122">
+    <row r="17" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>69</v>
       </c>
@@ -8600,12 +8613,12 @@
         <v>214935</v>
       </c>
     </row>
-    <row r="19" spans="2:122">
+    <row r="19" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:122">
+    <row r="20" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -9090,7 +9103,7 @@
         <v>11789.73845500001</v>
       </c>
     </row>
-    <row r="21" spans="2:122">
+    <row r="21" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>29</v>
       </c>
@@ -9575,7 +9588,7 @@
         <v>9824.7820458333408</v>
       </c>
     </row>
-    <row r="22" spans="2:122">
+    <row r="22" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -10060,7 +10073,7 @@
         <v>9824.7820458333408</v>
       </c>
     </row>
-    <row r="23" spans="2:122">
+    <row r="23" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -10545,7 +10558,7 @@
         <v>9824.7820458333408</v>
       </c>
     </row>
-    <row r="24" spans="2:122">
+    <row r="24" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>71</v>
       </c>
@@ -11030,7 +11043,7 @@
         <v>9824.7820458333408</v>
       </c>
     </row>
-    <row r="25" spans="2:122">
+    <row r="25" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>72</v>
       </c>
@@ -11515,7 +11528,7 @@
         <v>9824.7820458333408</v>
       </c>
     </row>
-    <row r="26" spans="2:122">
+    <row r="26" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>73</v>
       </c>
@@ -12000,7 +12013,7 @@
         <v>9824.7820458333408</v>
       </c>
     </row>
-    <row r="27" spans="2:122">
+    <row r="27" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>74</v>
       </c>
@@ -12485,7 +12498,7 @@
         <v>9824.7820458333408</v>
       </c>
     </row>
-    <row r="28" spans="2:122">
+    <row r="28" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>85</v>
       </c>
@@ -12970,7 +12983,7 @@
         <v>10746.75</v>
       </c>
     </row>
-    <row r="29" spans="2:122">
+    <row r="29" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>14</v>
       </c>
@@ -13455,7 +13468,7 @@
         <v>7073.8430730000055</v>
       </c>
     </row>
-    <row r="30" spans="2:122">
+    <row r="30" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>32</v>
       </c>
@@ -13940,7 +13953,7 @@
         <v>2357.9476910000008</v>
       </c>
     </row>
-    <row r="31" spans="2:122">
+    <row r="31" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>16</v>
       </c>
@@ -14425,7 +14438,7 @@
         <v>2357.9476910000008</v>
       </c>
     </row>
-    <row r="32" spans="2:122">
+    <row r="32" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>79</v>
       </c>
@@ -14910,7 +14923,7 @@
         <v>235.79476910000022</v>
       </c>
     </row>
-    <row r="34" spans="2:122">
+    <row r="34" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>76</v>
       </c>
@@ -15395,7 +15408,7 @@
         <v>103099.70123083341</v>
       </c>
     </row>
-    <row r="35" spans="2:122">
+    <row r="35" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>77</v>
       </c>
@@ -15880,7 +15893,7 @@
         <v>111835.29876916659</v>
       </c>
     </row>
-    <row r="37" spans="2:122">
+    <row r="37" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>81</v>
       </c>
@@ -16365,7 +16378,7 @@
         <v>416.66666666666669</v>
       </c>
     </row>
-    <row r="38" spans="2:122">
+    <row r="38" spans="2:122" x14ac:dyDescent="0.25">
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -16487,7 +16500,7 @@
       <c r="DQ38" s="7"/>
       <c r="DR38" s="7"/>
     </row>
-    <row r="39" spans="2:122">
+    <row r="39" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>83</v>
       </c>
@@ -16972,7 +16985,7 @@
         <v>33425.589630749972</v>
       </c>
     </row>
-    <row r="41" spans="2:122">
+    <row r="41" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>78</v>
       </c>
@@ -17456,7 +17469,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="2:122">
+    <row r="43" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>84</v>
       </c>
@@ -17956,22 +17969,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="16" thickBot="1">
+    <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>93</v>
       </c>
@@ -17979,7 +17992,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="16" thickBot="1">
+    <row r="4" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -17987,97 +18000,97 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="42">
+      <c r="D5" s="41">
         <v>1</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="41">
         <f t="shared" ref="E5:M5" si="0">D5+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="41">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="42">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="43">
         <v>43465</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="43">
         <v>43830</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <f>EDATE(D6,12)</f>
         <v>44196</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="43">
         <f t="shared" ref="F6:M6" si="1">EDATE(E6,12)</f>
         <v>44561</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="43">
         <f t="shared" si="1"/>
         <v>44926</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="43">
         <f t="shared" si="1"/>
         <v>45291</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="43">
         <f t="shared" si="1"/>
         <v>45657</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="43">
         <f t="shared" si="1"/>
         <v>46022</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="43">
         <f t="shared" si="1"/>
         <v>46387</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="43">
         <f t="shared" si="1"/>
         <v>46752</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="44">
         <f t="shared" si="1"/>
         <v>47118</v>
       </c>
     </row>
-    <row r="7" spans="2:13" hidden="1" outlineLevel="1">
+    <row r="7" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -18091,7 +18104,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="20"/>
     </row>
-    <row r="8" spans="2:13" hidden="1" outlineLevel="1">
+    <row r="8" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
         <v>86</v>
       </c>
@@ -18107,7 +18120,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="20"/>
     </row>
-    <row r="9" spans="2:13" hidden="1" outlineLevel="1">
+    <row r="9" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="str">
         <f>'Startup Costs'!B3</f>
         <v>Building &amp; Construction</v>
@@ -18127,7 +18140,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="20"/>
     </row>
-    <row r="10" spans="2:13" hidden="1" outlineLevel="1">
+    <row r="10" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="str">
         <f>'Startup Costs'!B4</f>
         <v>Permits / Licenses</v>
@@ -18147,7 +18160,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="20"/>
     </row>
-    <row r="11" spans="2:13" hidden="1" outlineLevel="1">
+    <row r="11" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="str">
         <f>'Startup Costs'!B5</f>
         <v>Equipment (Dumbbells, mats, blocks)</v>
@@ -18167,7 +18180,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" spans="2:13" hidden="1" outlineLevel="1">
+    <row r="12" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="str">
         <f>'Startup Costs'!B6</f>
         <v>Other materials (towels, etc)</v>
@@ -18187,7 +18200,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="20"/>
     </row>
-    <row r="13" spans="2:13" collapsed="1">
+    <row r="13" spans="2:13" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>87</v>
       </c>
@@ -18206,7 +18219,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="20"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -18220,7 +18233,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" spans="2:13" hidden="1" outlineLevel="1">
+    <row r="15" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>5</v>
       </c>
@@ -18236,7 +18249,7 @@
       <c r="L15" s="14"/>
       <c r="M15" s="22"/>
     </row>
-    <row r="16" spans="2:13" hidden="1" outlineLevel="1">
+    <row r="16" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
         <v>57</v>
       </c>
@@ -18252,7 +18265,7 @@
       <c r="L16" s="14"/>
       <c r="M16" s="22"/>
     </row>
-    <row r="17" spans="2:13" hidden="1" outlineLevel="1">
+    <row r="17" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>58</v>
       </c>
@@ -18268,7 +18281,7 @@
       <c r="L17" s="14"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="2:13" hidden="1" outlineLevel="1">
+    <row r="18" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>59</v>
       </c>
@@ -18284,7 +18297,7 @@
       <c r="L18" s="14"/>
       <c r="M18" s="22"/>
     </row>
-    <row r="19" spans="2:13" collapsed="1">
+    <row r="19" spans="2:13" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
         <v>88</v>
       </c>
@@ -18330,7 +18343,7 @@
         <v>2472500</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -18344,7 +18357,7 @@
       <c r="L20" s="14"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
         <v>6</v>
       </c>
@@ -18360,7 +18373,7 @@
       <c r="L21" s="14"/>
       <c r="M21" s="22"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
         <v>28</v>
       </c>
@@ -18406,7 +18419,7 @@
         <v>141476.86146000013</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
         <v>29</v>
       </c>
@@ -18452,7 +18465,7 @@
         <v>117897.38455000012</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
         <v>30</v>
       </c>
@@ -18498,7 +18511,7 @@
         <v>117897.38455000012</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
         <v>31</v>
       </c>
@@ -18544,7 +18557,7 @@
         <v>117897.38455000012</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
         <v>71</v>
       </c>
@@ -18590,7 +18603,7 @@
         <v>117897.38455000012</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
         <v>72</v>
       </c>
@@ -18636,7 +18649,7 @@
         <v>117897.38455000012</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
         <v>73</v>
       </c>
@@ -18682,7 +18695,7 @@
         <v>117897.38455000012</v>
       </c>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
         <v>74</v>
       </c>
@@ -18728,7 +18741,7 @@
         <v>117897.38455000012</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
         <v>13</v>
       </c>
@@ -18774,7 +18787,7 @@
         <v>123625</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
         <v>14</v>
       </c>
@@ -18820,7 +18833,7 @@
         <v>84886.116876000073</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
         <v>32</v>
       </c>
@@ -18866,7 +18879,7 @@
         <v>28295.372292000011</v>
       </c>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="19" t="s">
         <v>16</v>
       </c>
@@ -18912,7 +18925,7 @@
         <v>28295.372292000011</v>
       </c>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
         <v>79</v>
       </c>
@@ -18958,7 +18971,7 @@
         <v>2829.5372292000029</v>
       </c>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="19"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -18972,7 +18985,7 @@
       <c r="L35" s="14"/>
       <c r="M35" s="22"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
         <v>76</v>
       </c>
@@ -19018,7 +19031,7 @@
         <v>1234689.951999201</v>
       </c>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
         <v>77</v>
       </c>
@@ -19064,7 +19077,7 @@
         <v>1237810.048000799</v>
       </c>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="19"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -19078,7 +19091,7 @@
       <c r="L38" s="14"/>
       <c r="M38" s="22"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
         <v>81</v>
       </c>
@@ -19124,7 +19137,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -19138,7 +19151,7 @@
       <c r="L40" s="14"/>
       <c r="M40" s="22"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="19" t="s">
         <v>83</v>
       </c>
@@ -19184,7 +19197,7 @@
         <v>369843.01440023968</v>
       </c>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="19"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -19198,7 +19211,7 @@
       <c r="L42" s="14"/>
       <c r="M42" s="22"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="19" t="s">
         <v>78</v>
       </c>
@@ -19244,7 +19257,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="19"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -19258,7 +19271,7 @@
       <c r="L44" s="14"/>
       <c r="M44" s="22"/>
     </row>
-    <row r="45" spans="2:13" ht="16" thickBot="1">
+    <row r="45" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="28" t="s">
         <v>84</v>
       </c>
@@ -19307,8 +19320,8 @@
         <v>866767.03360055934</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="16" thickBot="1"/>
-    <row r="47" spans="2:13" ht="16" thickBot="1">
+    <row r="46" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>89</v>
       </c>
@@ -19317,27 +19330,27 @@
         <v>292906.9437650122</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="16" thickBot="1">
-      <c r="D50" s="41" t="s">
+    <row r="50" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C51" s="3">
         <f>C47</f>
         <v>292906.9437650122</v>
@@ -19370,7 +19383,7 @@
         <v>0.18000000000000005</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C52" s="4">
         <v>0.03</v>
       </c>
@@ -19397,7 +19410,7 @@
         <v>934154.72056021937</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C53" s="4">
         <f>C52+0.01</f>
         <v>0.04</v>
@@ -19424,7 +19437,7 @@
         <v>490102.28602600092</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
         <v>91</v>
       </c>
@@ -19454,7 +19467,7 @@
         <v>168422.30122819342</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C55" s="4">
         <f t="shared" si="6"/>
         <v>6.0000000000000005E-2</v>
@@ -19481,7 +19494,7 @@
         <v>-61939.916782411179</v>
       </c>
     </row>
-    <row r="56" spans="2:10" ht="16" thickBot="1">
+    <row r="56" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4">
         <f t="shared" si="6"/>
         <v>7.0000000000000007E-2</v>
